--- a/excel_reports/EnlightNuUsaLLC_House.xlsx
+++ b/excel_reports/EnlightNuUsaLLC_House.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Core" sheetId="2" r:id="rId2"/>
+    <sheet name="Dvh" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="197">
   <si>
     <t>Policy Record</t>
   </si>
@@ -155,6 +156,33 @@
     <t>False</t>
   </si>
   <si>
+    <t>3173177377</t>
+  </si>
+  <si>
+    <t>4100401</t>
+  </si>
+  <si>
+    <t>Cynthia</t>
+  </si>
+  <si>
+    <t>Cunningham</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>AETNA</t>
+  </si>
+  <si>
+    <t>08-03-2021</t>
+  </si>
+  <si>
+    <t>09-01-2021</t>
+  </si>
+  <si>
     <t>3173273611</t>
   </si>
   <si>
@@ -293,9 +321,6 @@
     <t>Mitchell</t>
   </si>
   <si>
-    <t>09-01-2021</t>
-  </si>
-  <si>
     <t>3173196118</t>
   </si>
   <si>
@@ -398,6 +423,45 @@
     <t>06-01-2022</t>
   </si>
   <si>
+    <t>3167039925</t>
+  </si>
+  <si>
+    <t>6922601</t>
+  </si>
+  <si>
+    <t>Margaret(Peg)</t>
+  </si>
+  <si>
+    <t>Colyar</t>
+  </si>
+  <si>
+    <t>AARP/UHC</t>
+  </si>
+  <si>
+    <t>AARP Medicare Advantage Choice (PPO)</t>
+  </si>
+  <si>
+    <t>Advantage</t>
+  </si>
+  <si>
+    <t>410 - Cancelled</t>
+  </si>
+  <si>
+    <t>10-28-2021</t>
+  </si>
+  <si>
+    <t>10-09-2022</t>
+  </si>
+  <si>
+    <t>3798777905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AARP MA Patriot </t>
+  </si>
+  <si>
+    <t>11-23-2021</t>
+  </si>
+  <si>
     <t>3167095955</t>
   </si>
   <si>
@@ -410,10 +474,49 @@
     <t>Dudley</t>
   </si>
   <si>
-    <t>AARP/UHC</t>
-  </si>
-  <si>
-    <t>Advantage</t>
+    <t>3168434998</t>
+  </si>
+  <si>
+    <t>9263551</t>
+  </si>
+  <si>
+    <t>Norma</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>01-25-2022</t>
+  </si>
+  <si>
+    <t>03-01-2022</t>
+  </si>
+  <si>
+    <t>03-31-2022</t>
+  </si>
+  <si>
+    <t>3798777767</t>
+  </si>
+  <si>
+    <t>HUMANA</t>
+  </si>
+  <si>
+    <t>Honor PPO</t>
+  </si>
+  <si>
+    <t>03-24-2022</t>
+  </si>
+  <si>
+    <t>3172447096</t>
+  </si>
+  <si>
+    <t>AMERITAS</t>
+  </si>
+  <si>
+    <t>PrimeStar® Access</t>
+  </si>
+  <si>
+    <t>dvh</t>
   </si>
   <si>
     <t>Core Plans Summary</t>
@@ -503,7 +606,7 @@
     <t>Copay - Commission:</t>
   </si>
   <si>
-    <t>14</t>
+    <t>15</t>
   </si>
 </sst>
 </file>
@@ -910,35 +1013,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="B5" s="4">
         <f>B3+B4-B2</f>
@@ -947,7 +1050,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="B6" s="2">
         <v>-30</v>
@@ -955,30 +1058,30 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B5:B7)</f>
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="B9" s="5">
         <f>MAX(0, B8*150)</f>
@@ -987,12 +1090,12 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -1000,7 +1103,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -1008,20 +1111,20 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -1030,22 +1133,28 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>152</v>
+        <v>186</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>153</v>
+        <v>187</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -1053,7 +1162,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="B23">
         <f>-B20+B21+B22</f>
@@ -1062,7 +1171,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="B24" s="5">
         <f>B23*50</f>
@@ -1071,17 +1180,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -1089,7 +1198,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="B29">
         <f>-B26+B27+B28</f>
@@ -1098,7 +1207,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="B30" s="5">
         <f>B29*100</f>
@@ -1112,7 +1221,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W44"/>
+  <dimension ref="A1:W52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1375,10 +1484,10 @@
         <v>49</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>27</v>
@@ -1387,7 +1496,7 @@
         <v>28</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>30</v>
@@ -1399,10 +1508,10 @@
         <v>32</v>
       </c>
       <c r="M8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>34</v>
@@ -1419,16 +1528,16 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>27</v>
@@ -1455,10 +1564,10 @@
         <v>32</v>
       </c>
       <c r="M10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="N10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="6" t="s">
         <v>34</v>
@@ -1475,16 +1584,16 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>27</v>
@@ -1511,30 +1620,36 @@
         <v>32</v>
       </c>
       <c r="M12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="T12" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="W12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>27</v>
@@ -1561,10 +1676,10 @@
         <v>32</v>
       </c>
       <c r="M14" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="N14" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>34</v>
@@ -1575,16 +1690,16 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>27</v>
@@ -1620,27 +1735,21 @@
         <v>34</v>
       </c>
       <c r="S16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T16" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="W16" t="b">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>27</v>
@@ -1667,10 +1776,10 @@
         <v>32</v>
       </c>
       <c r="M18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="N18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Q18" s="6" t="s">
         <v>34</v>
@@ -1687,16 +1796,16 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>27</v>
@@ -1723,30 +1832,36 @@
         <v>32</v>
       </c>
       <c r="M20" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="N20" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Q20" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S20" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="T20" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="W20" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>27</v>
@@ -1773,36 +1888,30 @@
         <v>32</v>
       </c>
       <c r="M22" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N22" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q22" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T22" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="W22" t="b">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>27</v>
@@ -1829,10 +1938,10 @@
         <v>32</v>
       </c>
       <c r="M24" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="N24" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="Q24" s="6" t="s">
         <v>34</v>
@@ -1849,16 +1958,16 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="9" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>27</v>
@@ -1885,10 +1994,10 @@
         <v>32</v>
       </c>
       <c r="M26" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="N26" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="Q26" s="6" t="s">
         <v>34</v>
@@ -1905,16 +2014,16 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>27</v>
@@ -1941,10 +2050,10 @@
         <v>32</v>
       </c>
       <c r="M28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q28" s="6" t="s">
         <v>34</v>
@@ -1961,16 +2070,16 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>27</v>
@@ -1997,30 +2106,36 @@
         <v>32</v>
       </c>
       <c r="M30" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N30" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q30" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S30" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="T30" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="W30" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>27</v>
@@ -2047,36 +2162,30 @@
         <v>32</v>
       </c>
       <c r="M32" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="N32" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="Q32" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S32" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T32" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="W32" t="b">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:23">
       <c r="A34" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>27</v>
@@ -2103,10 +2212,10 @@
         <v>32</v>
       </c>
       <c r="M34" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="N34" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="Q34" s="6" t="s">
         <v>34</v>
@@ -2123,16 +2232,16 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" s="9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>27</v>
@@ -2159,30 +2268,36 @@
         <v>32</v>
       </c>
       <c r="M36" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="N36" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="Q36" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S36" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="T36" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="W36" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:23">
       <c r="A38" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>27</v>
@@ -2209,36 +2324,30 @@
         <v>32</v>
       </c>
       <c r="M38" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="N38" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="Q38" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S38" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T38" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="W38" t="b">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:23">
       <c r="A40" s="9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>27</v>
@@ -2265,10 +2374,10 @@
         <v>32</v>
       </c>
       <c r="M40" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="N40" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="Q40" s="6" t="s">
         <v>34</v>
@@ -2285,16 +2394,16 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>27</v>
@@ -2321,30 +2430,36 @@
         <v>32</v>
       </c>
       <c r="M42" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="N42" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="Q42" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S42" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="T42" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="W42" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:23">
       <c r="A44" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>27</v>
@@ -2359,24 +2474,280 @@
         <v>28</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>131</v>
+        <v>29</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="K44" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="L44" t="s">
         <v>32</v>
       </c>
       <c r="M44" t="s">
+        <v>134</v>
+      </c>
+      <c r="N44" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q44" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S44" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="K46" t="s">
+        <v>141</v>
+      </c>
+      <c r="L46" t="s">
+        <v>142</v>
+      </c>
+      <c r="M46" t="s">
+        <v>143</v>
+      </c>
+      <c r="N46" t="s">
         <v>44</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O46" t="s">
+        <v>144</v>
+      </c>
+      <c r="P46" t="s">
         <v>44</v>
       </c>
-      <c r="Q44" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S44" s="7" t="s">
+      <c r="Q46" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="K47" t="s">
+        <v>141</v>
+      </c>
+      <c r="L47" t="s">
+        <v>32</v>
+      </c>
+      <c r="M47" t="s">
+        <v>147</v>
+      </c>
+      <c r="N47" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q47" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S47" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K49" t="s">
+        <v>141</v>
+      </c>
+      <c r="L49" t="s">
+        <v>32</v>
+      </c>
+      <c r="M49" t="s">
+        <v>44</v>
+      </c>
+      <c r="N49" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q49" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S49" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="K51" t="s">
+        <v>141</v>
+      </c>
+      <c r="L51" t="s">
+        <v>142</v>
+      </c>
+      <c r="M51" t="s">
+        <v>156</v>
+      </c>
+      <c r="N51" t="s">
+        <v>157</v>
+      </c>
+      <c r="O51" t="s">
+        <v>144</v>
+      </c>
+      <c r="P51" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q51" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="K52" t="s">
+        <v>141</v>
+      </c>
+      <c r="L52" t="s">
+        <v>32</v>
+      </c>
+      <c r="M52" t="s">
+        <v>162</v>
+      </c>
+      <c r="N52" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q52" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S52" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2426,6 +2797,142 @@
     <hyperlink ref="B42" r:id="rId42"/>
     <hyperlink ref="A44" r:id="rId43"/>
     <hyperlink ref="B44" r:id="rId44"/>
+    <hyperlink ref="A46" r:id="rId45"/>
+    <hyperlink ref="B46" r:id="rId46"/>
+    <hyperlink ref="A47" r:id="rId47"/>
+    <hyperlink ref="B47" r:id="rId48"/>
+    <hyperlink ref="A49" r:id="rId49"/>
+    <hyperlink ref="B49" r:id="rId50"/>
+    <hyperlink ref="A51" r:id="rId51"/>
+    <hyperlink ref="B51" r:id="rId52"/>
+    <hyperlink ref="A52" r:id="rId53"/>
+    <hyperlink ref="B52" r:id="rId54"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="13.7109375" style="6" customWidth="1"/>
+    <col min="3" max="9" width="9.7109375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="6" customWidth="1"/>
+    <col min="11" max="16" width="11.7109375" customWidth="1"/>
+    <col min="17" max="19" width="10.7109375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="7" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="K2" t="s">
+        <v>166</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel_reports/EnlightNuUsaLLC_House.xlsx
+++ b/excel_reports/EnlightNuUsaLLC_House.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="210">
   <si>
     <t>Policy Record</t>
   </si>
@@ -285,6 +285,21 @@
     <t>04-01-2022</t>
   </si>
   <si>
+    <t>3173184837</t>
+  </si>
+  <si>
+    <t>6459551</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Kellner</t>
+  </si>
+  <si>
+    <t>10-05-2021</t>
+  </si>
+  <si>
     <t>3173286698</t>
   </si>
   <si>
@@ -423,6 +438,36 @@
     <t>06-01-2022</t>
   </si>
   <si>
+    <t>3168411539</t>
+  </si>
+  <si>
+    <t>313301</t>
+  </si>
+  <si>
+    <t>Janice</t>
+  </si>
+  <si>
+    <t>Campbell</t>
+  </si>
+  <si>
+    <t>Advantage</t>
+  </si>
+  <si>
+    <t>500 - Cancelled</t>
+  </si>
+  <si>
+    <t>11-18-2020</t>
+  </si>
+  <si>
+    <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>10-09-2022</t>
+  </si>
+  <si>
+    <t>12-31-2021</t>
+  </si>
+  <si>
     <t>3167039925</t>
   </si>
   <si>
@@ -441,18 +486,12 @@
     <t>AARP Medicare Advantage Choice (PPO)</t>
   </si>
   <si>
-    <t>Advantage</t>
-  </si>
-  <si>
     <t>410 - Cancelled</t>
   </si>
   <si>
     <t>10-28-2021</t>
   </si>
   <si>
-    <t>10-09-2022</t>
-  </si>
-  <si>
     <t>3798777905</t>
   </si>
   <si>
@@ -606,7 +645,7 @@
     <t>Copay - Commission:</t>
   </si>
   <si>
-    <t>15</t>
+    <t>18</t>
   </si>
 </sst>
 </file>
@@ -1013,35 +1052,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="B5" s="4">
         <f>B3+B4-B2</f>
@@ -1050,7 +1089,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="B6" s="2">
         <v>-30</v>
@@ -1058,30 +1097,30 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B5:B7)</f>
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="B9" s="5">
         <f>MAX(0, B8*150)</f>
@@ -1090,12 +1129,12 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -1103,7 +1142,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -1111,20 +1150,20 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -1133,12 +1172,12 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1146,7 +1185,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1154,7 +1193,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -1162,7 +1201,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="B23">
         <f>-B20+B21+B22</f>
@@ -1171,7 +1210,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="B24" s="5">
         <f>B23*50</f>
@@ -1180,17 +1219,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -1198,7 +1237,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="B29">
         <f>-B26+B27+B28</f>
@@ -1207,7 +1246,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="B30" s="5">
         <f>B29*100</f>
@@ -1221,7 +1260,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W52"/>
+  <dimension ref="A1:W56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1685,7 +1724,13 @@
         <v>34</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="T14" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="W14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1735,7 +1780,13 @@
         <v>34</v>
       </c>
       <c r="S16" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="T16" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="W16" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1914,10 +1965,10 @@
         <v>92</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>27</v>
@@ -1941,19 +1992,13 @@
         <v>93</v>
       </c>
       <c r="N24" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="Q24" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T24" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="W24" t="b">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -1964,10 +2009,10 @@
         <v>95</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>27</v>
@@ -1994,10 +2039,10 @@
         <v>32</v>
       </c>
       <c r="M26" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="N26" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="Q26" s="6" t="s">
         <v>34</v>
@@ -2014,16 +2059,16 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>27</v>
@@ -2050,10 +2095,10 @@
         <v>32</v>
       </c>
       <c r="M28" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="N28" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="Q28" s="6" t="s">
         <v>34</v>
@@ -2070,16 +2115,16 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>27</v>
@@ -2106,10 +2151,10 @@
         <v>32</v>
       </c>
       <c r="M30" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N30" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="Q30" s="6" t="s">
         <v>34</v>
@@ -2126,16 +2171,16 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>27</v>
@@ -2162,30 +2207,36 @@
         <v>32</v>
       </c>
       <c r="M32" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="N32" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="Q32" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S32" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="T32" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="W32" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:23">
       <c r="A34" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>27</v>
@@ -2212,10 +2263,10 @@
         <v>32</v>
       </c>
       <c r="M34" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="N34" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="Q34" s="6" t="s">
         <v>34</v>
@@ -2232,13 +2283,13 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>116</v>
@@ -2268,10 +2319,10 @@
         <v>32</v>
       </c>
       <c r="M36" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="N36" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="Q36" s="6" t="s">
         <v>34</v>
@@ -2288,16 +2339,16 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>27</v>
@@ -2324,16 +2375,22 @@
         <v>32</v>
       </c>
       <c r="M38" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="N38" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="Q38" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S38" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="T38" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="W38" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -2374,36 +2431,30 @@
         <v>32</v>
       </c>
       <c r="M40" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="N40" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="Q40" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S40" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T40" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="W40" t="b">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:23">
       <c r="A42" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>27</v>
@@ -2430,10 +2481,10 @@
         <v>32</v>
       </c>
       <c r="M42" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="N42" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="Q42" s="6" t="s">
         <v>34</v>
@@ -2450,16 +2501,16 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>27</v>
@@ -2486,16 +2537,22 @@
         <v>32</v>
       </c>
       <c r="M44" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="N44" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="Q44" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S44" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="T44" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="W44" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -2512,160 +2569,166 @@
         <v>138</v>
       </c>
       <c r="E46" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K46" t="s">
+        <v>31</v>
+      </c>
+      <c r="L46" t="s">
+        <v>32</v>
+      </c>
+      <c r="M46" t="s">
+        <v>139</v>
+      </c>
+      <c r="N46" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q46" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S46" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F48" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G48" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K48" t="s">
+        <v>144</v>
+      </c>
+      <c r="L48" t="s">
+        <v>145</v>
+      </c>
+      <c r="M48" t="s">
+        <v>146</v>
+      </c>
+      <c r="N48" t="s">
+        <v>147</v>
+      </c>
+      <c r="O48" t="s">
+        <v>148</v>
+      </c>
+      <c r="P48" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q48" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="S48" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="F50" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I46" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="K46" t="s">
-        <v>141</v>
-      </c>
-      <c r="L46" t="s">
-        <v>142</v>
-      </c>
-      <c r="M46" t="s">
-        <v>143</v>
-      </c>
-      <c r="N46" t="s">
+      <c r="G50" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K50" t="s">
+        <v>144</v>
+      </c>
+      <c r="L50" t="s">
+        <v>156</v>
+      </c>
+      <c r="M50" t="s">
+        <v>157</v>
+      </c>
+      <c r="N50" t="s">
         <v>44</v>
       </c>
-      <c r="O46" t="s">
-        <v>144</v>
-      </c>
-      <c r="P46" t="s">
+      <c r="O50" t="s">
+        <v>148</v>
+      </c>
+      <c r="P50" t="s">
         <v>44</v>
       </c>
-      <c r="Q46" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23">
-      <c r="A47" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="K47" t="s">
-        <v>141</v>
-      </c>
-      <c r="L47" t="s">
-        <v>32</v>
-      </c>
-      <c r="M47" t="s">
-        <v>147</v>
-      </c>
-      <c r="N47" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q47" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S47" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19">
-      <c r="A49" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K49" t="s">
-        <v>141</v>
-      </c>
-      <c r="L49" t="s">
-        <v>32</v>
-      </c>
-      <c r="M49" t="s">
-        <v>44</v>
-      </c>
-      <c r="N49" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q49" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S49" s="7" t="s">
-        <v>45</v>
+      <c r="Q50" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="D51" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>155</v>
-      </c>
       <c r="E51" s="6" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>50</v>
@@ -2674,80 +2737,177 @@
         <v>51</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="K51" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L51" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="M51" t="s">
+        <v>160</v>
+      </c>
+      <c r="N51" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q51" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S51" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
+      <c r="A53" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K53" t="s">
+        <v>144</v>
+      </c>
+      <c r="L53" t="s">
+        <v>32</v>
+      </c>
+      <c r="M53" t="s">
+        <v>44</v>
+      </c>
+      <c r="N53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q53" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S53" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
+      <c r="A55" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K55" t="s">
+        <v>144</v>
+      </c>
+      <c r="L55" t="s">
         <v>156</v>
       </c>
-      <c r="N51" t="s">
-        <v>157</v>
-      </c>
-      <c r="O51" t="s">
+      <c r="M55" t="s">
+        <v>169</v>
+      </c>
+      <c r="N55" t="s">
+        <v>170</v>
+      </c>
+      <c r="O55" t="s">
+        <v>148</v>
+      </c>
+      <c r="P55" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q55" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="A56" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="K56" t="s">
         <v>144</v>
       </c>
-      <c r="P51" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q51" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19">
-      <c r="A52" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="K52" t="s">
-        <v>141</v>
-      </c>
-      <c r="L52" t="s">
+      <c r="L56" t="s">
         <v>32</v>
       </c>
-      <c r="M52" t="s">
-        <v>162</v>
-      </c>
-      <c r="N52" t="s">
+      <c r="M56" t="s">
+        <v>175</v>
+      </c>
+      <c r="N56" t="s">
         <v>88</v>
       </c>
-      <c r="Q52" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S52" s="7" t="s">
+      <c r="Q56" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S56" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2799,14 +2959,18 @@
     <hyperlink ref="B44" r:id="rId44"/>
     <hyperlink ref="A46" r:id="rId45"/>
     <hyperlink ref="B46" r:id="rId46"/>
-    <hyperlink ref="A47" r:id="rId47"/>
-    <hyperlink ref="B47" r:id="rId48"/>
-    <hyperlink ref="A49" r:id="rId49"/>
-    <hyperlink ref="B49" r:id="rId50"/>
+    <hyperlink ref="A48" r:id="rId47"/>
+    <hyperlink ref="B48" r:id="rId48"/>
+    <hyperlink ref="A50" r:id="rId49"/>
+    <hyperlink ref="B50" r:id="rId50"/>
     <hyperlink ref="A51" r:id="rId51"/>
     <hyperlink ref="B51" r:id="rId52"/>
-    <hyperlink ref="A52" r:id="rId53"/>
-    <hyperlink ref="B52" r:id="rId54"/>
+    <hyperlink ref="A53" r:id="rId53"/>
+    <hyperlink ref="B53" r:id="rId54"/>
+    <hyperlink ref="A55" r:id="rId55"/>
+    <hyperlink ref="B55" r:id="rId56"/>
+    <hyperlink ref="A56" r:id="rId57"/>
+    <hyperlink ref="B56" r:id="rId58"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2887,7 +3051,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="9" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>47</v>
@@ -2911,13 +3075,13 @@
         <v>28</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="K2" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="L2" t="s">
         <v>32</v>

--- a/excel_reports/EnlightNuUsaLLC_House.xlsx
+++ b/excel_reports/EnlightNuUsaLLC_House.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="199">
   <si>
     <t>Policy Record</t>
   </si>
@@ -285,21 +285,6 @@
     <t>04-01-2022</t>
   </si>
   <si>
-    <t>3173184837</t>
-  </si>
-  <si>
-    <t>6459551</t>
-  </si>
-  <si>
-    <t>Kim</t>
-  </si>
-  <si>
-    <t>Kellner</t>
-  </si>
-  <si>
-    <t>10-05-2021</t>
-  </si>
-  <si>
     <t>3173286698</t>
   </si>
   <si>
@@ -438,99 +423,51 @@
     <t>06-01-2022</t>
   </si>
   <si>
-    <t>3168411539</t>
-  </si>
-  <si>
-    <t>313301</t>
-  </si>
-  <si>
-    <t>Janice</t>
-  </si>
-  <si>
-    <t>Campbell</t>
+    <t>3167095955</t>
+  </si>
+  <si>
+    <t>16778215</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Dudley</t>
+  </si>
+  <si>
+    <t>AARP/UHC</t>
   </si>
   <si>
     <t>Advantage</t>
   </si>
   <si>
-    <t>500 - Cancelled</t>
-  </si>
-  <si>
-    <t>11-18-2020</t>
-  </si>
-  <si>
-    <t>01-01-2021</t>
+    <t>3168434998</t>
+  </si>
+  <si>
+    <t>9263551</t>
+  </si>
+  <si>
+    <t>Norma</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>AARP Medicare Advantage Choice (PPO)</t>
+  </si>
+  <si>
+    <t>410 - Cancelled</t>
+  </si>
+  <si>
+    <t>01-25-2022</t>
+  </si>
+  <si>
+    <t>03-01-2022</t>
   </si>
   <si>
     <t>10-09-2022</t>
   </si>
   <si>
-    <t>12-31-2021</t>
-  </si>
-  <si>
-    <t>3167039925</t>
-  </si>
-  <si>
-    <t>6922601</t>
-  </si>
-  <si>
-    <t>Margaret(Peg)</t>
-  </si>
-  <si>
-    <t>Colyar</t>
-  </si>
-  <si>
-    <t>AARP/UHC</t>
-  </si>
-  <si>
-    <t>AARP Medicare Advantage Choice (PPO)</t>
-  </si>
-  <si>
-    <t>410 - Cancelled</t>
-  </si>
-  <si>
-    <t>10-28-2021</t>
-  </si>
-  <si>
-    <t>3798777905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AARP MA Patriot </t>
-  </si>
-  <si>
-    <t>11-23-2021</t>
-  </si>
-  <si>
-    <t>3167095955</t>
-  </si>
-  <si>
-    <t>16778215</t>
-  </si>
-  <si>
-    <t>Charles</t>
-  </si>
-  <si>
-    <t>Dudley</t>
-  </si>
-  <si>
-    <t>3168434998</t>
-  </si>
-  <si>
-    <t>9263551</t>
-  </si>
-  <si>
-    <t>Norma</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>01-25-2022</t>
-  </si>
-  <si>
-    <t>03-01-2022</t>
-  </si>
-  <si>
     <t>03-31-2022</t>
   </si>
   <si>
@@ -546,6 +483,36 @@
     <t>03-24-2022</t>
   </si>
   <si>
+    <t>3167091334</t>
+  </si>
+  <si>
+    <t>6821051</t>
+  </si>
+  <si>
+    <t>Judson</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>CIGNA</t>
+  </si>
+  <si>
+    <t>Cigna Preferred Medicare (HMO)</t>
+  </si>
+  <si>
+    <t>11-05-2021</t>
+  </si>
+  <si>
+    <t>3799452754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cigna Alliance Medicare (HMO) </t>
+  </si>
+  <si>
+    <t>12-07-2021</t>
+  </si>
+  <si>
     <t>3172447096</t>
   </si>
   <si>
@@ -645,7 +612,7 @@
     <t>Copay - Commission:</t>
   </si>
   <si>
-    <t>18</t>
+    <t>19</t>
   </si>
 </sst>
 </file>
@@ -1052,35 +1019,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B5" s="4">
         <f>B3+B4-B2</f>
@@ -1089,7 +1056,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B6" s="2">
         <v>-30</v>
@@ -1097,30 +1064,30 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B5:B7)</f>
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B9" s="5">
         <f>MAX(0, B8*150)</f>
@@ -1129,12 +1096,12 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -1142,7 +1109,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -1150,20 +1117,20 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -1172,12 +1139,12 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1185,7 +1152,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1193,7 +1160,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -1201,7 +1168,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B23">
         <f>-B20+B21+B22</f>
@@ -1210,7 +1177,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B24" s="5">
         <f>B23*50</f>
@@ -1219,17 +1186,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -1237,7 +1204,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B29">
         <f>-B26+B27+B28</f>
@@ -1246,7 +1213,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B30" s="5">
         <f>B29*100</f>
@@ -1260,7 +1227,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W56"/>
+  <dimension ref="A1:W52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1965,10 +1932,10 @@
         <v>92</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>27</v>
@@ -1992,13 +1959,19 @@
         <v>93</v>
       </c>
       <c r="N24" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="Q24" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S24" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="T24" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="W24" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2009,10 +1982,10 @@
         <v>95</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>27</v>
@@ -2039,10 +2012,10 @@
         <v>32</v>
       </c>
       <c r="M26" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="N26" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="Q26" s="6" t="s">
         <v>34</v>
@@ -2059,16 +2032,16 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="D28" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>27</v>
@@ -2095,10 +2068,10 @@
         <v>32</v>
       </c>
       <c r="M28" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="N28" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="Q28" s="6" t="s">
         <v>34</v>
@@ -2115,16 +2088,16 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="C30" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>27</v>
@@ -2151,10 +2124,10 @@
         <v>32</v>
       </c>
       <c r="M30" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="N30" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="Q30" s="6" t="s">
         <v>34</v>
@@ -2171,16 +2144,16 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="C32" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>109</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>27</v>
@@ -2207,10 +2180,10 @@
         <v>32</v>
       </c>
       <c r="M32" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N32" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="Q32" s="6" t="s">
         <v>34</v>
@@ -2227,16 +2200,16 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="C34" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>27</v>
@@ -2263,10 +2236,10 @@
         <v>32</v>
       </c>
       <c r="M34" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="N34" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="Q34" s="6" t="s">
         <v>34</v>
@@ -2283,13 +2256,13 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="C36" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>108</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>116</v>
@@ -2319,10 +2292,10 @@
         <v>32</v>
       </c>
       <c r="M36" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="N36" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q36" s="6" t="s">
         <v>34</v>
@@ -2339,16 +2312,16 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="C38" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>27</v>
@@ -2375,22 +2348,16 @@
         <v>32</v>
       </c>
       <c r="M38" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="N38" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="Q38" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S38" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T38" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="W38" t="b">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -2431,30 +2398,36 @@
         <v>32</v>
       </c>
       <c r="M40" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="N40" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="Q40" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S40" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="T40" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="W40" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:23">
       <c r="A42" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="C42" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>27</v>
@@ -2481,10 +2454,10 @@
         <v>32</v>
       </c>
       <c r="M42" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="N42" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="Q42" s="6" t="s">
         <v>34</v>
@@ -2501,16 +2474,16 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="C44" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="D44" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>27</v>
@@ -2537,22 +2510,16 @@
         <v>32</v>
       </c>
       <c r="M44" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="N44" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="Q44" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S44" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T44" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="W44" t="b">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -2581,22 +2548,19 @@
         <v>28</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="K46" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="L46" t="s">
         <v>32</v>
       </c>
       <c r="M46" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="N46" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="Q46" s="6" t="s">
         <v>34</v>
@@ -2607,16 +2571,16 @@
     </row>
     <row r="48" spans="1:23">
       <c r="A48" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>50</v>
@@ -2625,110 +2589,107 @@
         <v>51</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>52</v>
+        <v>139</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="K48" t="s">
+        <v>140</v>
+      </c>
+      <c r="L48" t="s">
+        <v>146</v>
+      </c>
+      <c r="M48" t="s">
+        <v>147</v>
+      </c>
+      <c r="N48" t="s">
+        <v>148</v>
+      </c>
+      <c r="O48" t="s">
+        <v>149</v>
+      </c>
+      <c r="P48" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q48" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
+      <c r="A49" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L48" t="s">
-        <v>145</v>
-      </c>
-      <c r="M48" t="s">
-        <v>146</v>
-      </c>
-      <c r="N48" t="s">
-        <v>147</v>
-      </c>
-      <c r="O48" t="s">
-        <v>148</v>
-      </c>
-      <c r="P48" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q48" s="6" t="s">
+      <c r="E49" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="K49" t="s">
+        <v>140</v>
+      </c>
+      <c r="L49" t="s">
+        <v>32</v>
+      </c>
+      <c r="M49" t="s">
+        <v>154</v>
+      </c>
+      <c r="N49" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q49" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S49" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="S48" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19">
-      <c r="A50" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E50" s="6" t="s">
+    </row>
+    <row r="51" spans="1:23">
+      <c r="A51" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F51" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="K50" t="s">
-        <v>144</v>
-      </c>
-      <c r="L50" t="s">
-        <v>156</v>
-      </c>
-      <c r="M50" t="s">
-        <v>157</v>
-      </c>
-      <c r="N50" t="s">
-        <v>44</v>
-      </c>
-      <c r="O50" t="s">
-        <v>148</v>
-      </c>
-      <c r="P50" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q50" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19">
-      <c r="A51" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>50</v>
@@ -2737,178 +2698,84 @@
         <v>51</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="J51" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="K51" t="s">
+        <v>140</v>
+      </c>
+      <c r="L51" t="s">
+        <v>146</v>
+      </c>
+      <c r="M51" t="s">
+        <v>161</v>
+      </c>
+      <c r="N51" t="s">
+        <v>69</v>
+      </c>
+      <c r="O51" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q51" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="A52" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I52" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="K51" t="s">
-        <v>144</v>
-      </c>
-      <c r="L51" t="s">
+      <c r="J52" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="K52" t="s">
+        <v>140</v>
+      </c>
+      <c r="L52" t="s">
         <v>32</v>
       </c>
-      <c r="M51" t="s">
-        <v>160</v>
-      </c>
-      <c r="N51" t="s">
+      <c r="M52" t="s">
+        <v>164</v>
+      </c>
+      <c r="N52" t="s">
         <v>44</v>
       </c>
-      <c r="Q51" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S51" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19">
-      <c r="A53" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K53" t="s">
-        <v>144</v>
-      </c>
-      <c r="L53" t="s">
-        <v>32</v>
-      </c>
-      <c r="M53" t="s">
-        <v>44</v>
-      </c>
-      <c r="N53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q53" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S53" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19">
-      <c r="A55" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="K55" t="s">
-        <v>144</v>
-      </c>
-      <c r="L55" t="s">
-        <v>156</v>
-      </c>
-      <c r="M55" t="s">
-        <v>169</v>
-      </c>
-      <c r="N55" t="s">
-        <v>170</v>
-      </c>
-      <c r="O55" t="s">
-        <v>148</v>
-      </c>
-      <c r="P55" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q55" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19">
-      <c r="A56" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="K56" t="s">
-        <v>144</v>
-      </c>
-      <c r="L56" t="s">
-        <v>32</v>
-      </c>
-      <c r="M56" t="s">
-        <v>175</v>
-      </c>
-      <c r="N56" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q56" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S56" s="7" t="s">
-        <v>45</v>
+      <c r="Q52" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S52" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="T52" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="W52" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2961,16 +2828,12 @@
     <hyperlink ref="B46" r:id="rId46"/>
     <hyperlink ref="A48" r:id="rId47"/>
     <hyperlink ref="B48" r:id="rId48"/>
-    <hyperlink ref="A50" r:id="rId49"/>
-    <hyperlink ref="B50" r:id="rId50"/>
+    <hyperlink ref="A49" r:id="rId49"/>
+    <hyperlink ref="B49" r:id="rId50"/>
     <hyperlink ref="A51" r:id="rId51"/>
     <hyperlink ref="B51" r:id="rId52"/>
-    <hyperlink ref="A53" r:id="rId53"/>
-    <hyperlink ref="B53" r:id="rId54"/>
-    <hyperlink ref="A55" r:id="rId55"/>
-    <hyperlink ref="B55" r:id="rId56"/>
-    <hyperlink ref="A56" r:id="rId57"/>
-    <hyperlink ref="B56" r:id="rId58"/>
+    <hyperlink ref="A52" r:id="rId53"/>
+    <hyperlink ref="B52" r:id="rId54"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3051,7 +2914,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="9" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>47</v>
@@ -3075,13 +2938,13 @@
         <v>28</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="K2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="L2" t="s">
         <v>32</v>

--- a/excel_reports/EnlightNuUsaLLC_House.xlsx
+++ b/excel_reports/EnlightNuUsaLLC_House.xlsx
@@ -9,14 +9,13 @@
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Core" sheetId="2" r:id="rId2"/>
-    <sheet name="Dvh" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="163">
   <si>
     <t>Policy Record</t>
   </si>
@@ -156,171 +155,147 @@
     <t>False</t>
   </si>
   <si>
-    <t>3173177377</t>
-  </si>
-  <si>
-    <t>4100401</t>
-  </si>
-  <si>
-    <t>Cynthia</t>
-  </si>
-  <si>
-    <t>Cunningham</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>Agent</t>
-  </si>
-  <si>
-    <t>AETNA</t>
-  </si>
-  <si>
-    <t>08-03-2021</t>
+    <t>3173273611</t>
+  </si>
+  <si>
+    <t>16779763</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Fetner</t>
+  </si>
+  <si>
+    <t>10-01-2021</t>
+  </si>
+  <si>
+    <t>3173253749</t>
+  </si>
+  <si>
+    <t>16775687</t>
+  </si>
+  <si>
+    <t>Deborah</t>
+  </si>
+  <si>
+    <t>Harper</t>
+  </si>
+  <si>
+    <t>11-01-2021</t>
+  </si>
+  <si>
+    <t>3173253768</t>
+  </si>
+  <si>
+    <t>16775384</t>
+  </si>
+  <si>
+    <t>Jeffery</t>
+  </si>
+  <si>
+    <t>Hays</t>
+  </si>
+  <si>
+    <t>12-01-2021</t>
+  </si>
+  <si>
+    <t>3173057843</t>
+  </si>
+  <si>
+    <t>16778081</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Higgins</t>
+  </si>
+  <si>
+    <t>3173286806</t>
+  </si>
+  <si>
+    <t>16773870</t>
+  </si>
+  <si>
+    <t>Dennis</t>
+  </si>
+  <si>
+    <t>Hiser</t>
+  </si>
+  <si>
+    <t>08-01-2021</t>
+  </si>
+  <si>
+    <t>3173286724</t>
+  </si>
+  <si>
+    <t>16775789</t>
+  </si>
+  <si>
+    <t>Linda</t>
+  </si>
+  <si>
+    <t>Hobson</t>
+  </si>
+  <si>
+    <t>06-01-2021</t>
+  </si>
+  <si>
+    <t>3173196122</t>
+  </si>
+  <si>
+    <t>16774588</t>
+  </si>
+  <si>
+    <t>Phillipe</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>04-01-2022</t>
+  </si>
+  <si>
+    <t>3173286698</t>
+  </si>
+  <si>
+    <t>16775892</t>
+  </si>
+  <si>
+    <t>Melba</t>
+  </si>
+  <si>
+    <t>Mars</t>
+  </si>
+  <si>
+    <t>12-01-2020</t>
+  </si>
+  <si>
+    <t>3173286710</t>
+  </si>
+  <si>
+    <t>16775922</t>
+  </si>
+  <si>
+    <t>Mcgavock</t>
+  </si>
+  <si>
+    <t>3173196125</t>
+  </si>
+  <si>
+    <t>16775295</t>
+  </si>
+  <si>
+    <t>Jill</t>
+  </si>
+  <si>
+    <t>Mitchell</t>
   </si>
   <si>
     <t>09-01-2021</t>
   </si>
   <si>
-    <t>3173273611</t>
-  </si>
-  <si>
-    <t>16779763</t>
-  </si>
-  <si>
-    <t>Richard</t>
-  </si>
-  <si>
-    <t>Fetner</t>
-  </si>
-  <si>
-    <t>10-01-2021</t>
-  </si>
-  <si>
-    <t>3173253749</t>
-  </si>
-  <si>
-    <t>16775687</t>
-  </si>
-  <si>
-    <t>Deborah</t>
-  </si>
-  <si>
-    <t>Harper</t>
-  </si>
-  <si>
-    <t>11-01-2021</t>
-  </si>
-  <si>
-    <t>3173253768</t>
-  </si>
-  <si>
-    <t>16775384</t>
-  </si>
-  <si>
-    <t>Jeffery</t>
-  </si>
-  <si>
-    <t>Hays</t>
-  </si>
-  <si>
-    <t>12-01-2021</t>
-  </si>
-  <si>
-    <t>3173057843</t>
-  </si>
-  <si>
-    <t>16778081</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Higgins</t>
-  </si>
-  <si>
-    <t>3173286806</t>
-  </si>
-  <si>
-    <t>16773870</t>
-  </si>
-  <si>
-    <t>Dennis</t>
-  </si>
-  <si>
-    <t>Hiser</t>
-  </si>
-  <si>
-    <t>08-01-2021</t>
-  </si>
-  <si>
-    <t>3173286724</t>
-  </si>
-  <si>
-    <t>16775789</t>
-  </si>
-  <si>
-    <t>Linda</t>
-  </si>
-  <si>
-    <t>Hobson</t>
-  </si>
-  <si>
-    <t>06-01-2021</t>
-  </si>
-  <si>
-    <t>3173196122</t>
-  </si>
-  <si>
-    <t>16774588</t>
-  </si>
-  <si>
-    <t>Phillipe</t>
-  </si>
-  <si>
-    <t>Johnson</t>
-  </si>
-  <si>
-    <t>04-01-2022</t>
-  </si>
-  <si>
-    <t>3173286698</t>
-  </si>
-  <si>
-    <t>16775892</t>
-  </si>
-  <si>
-    <t>Melba</t>
-  </si>
-  <si>
-    <t>Mars</t>
-  </si>
-  <si>
-    <t>12-01-2020</t>
-  </si>
-  <si>
-    <t>3173286710</t>
-  </si>
-  <si>
-    <t>16775922</t>
-  </si>
-  <si>
-    <t>Mcgavock</t>
-  </si>
-  <si>
-    <t>3173196125</t>
-  </si>
-  <si>
-    <t>16775295</t>
-  </si>
-  <si>
-    <t>Jill</t>
-  </si>
-  <si>
-    <t>Mitchell</t>
-  </si>
-  <si>
     <t>3173196118</t>
   </si>
   <si>
@@ -441,90 +416,6 @@
     <t>Advantage</t>
   </si>
   <si>
-    <t>3168434998</t>
-  </si>
-  <si>
-    <t>9263551</t>
-  </si>
-  <si>
-    <t>Norma</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>AARP Medicare Advantage Choice (PPO)</t>
-  </si>
-  <si>
-    <t>410 - Cancelled</t>
-  </si>
-  <si>
-    <t>01-25-2022</t>
-  </si>
-  <si>
-    <t>03-01-2022</t>
-  </si>
-  <si>
-    <t>10-09-2022</t>
-  </si>
-  <si>
-    <t>03-31-2022</t>
-  </si>
-  <si>
-    <t>3798777767</t>
-  </si>
-  <si>
-    <t>HUMANA</t>
-  </si>
-  <si>
-    <t>Honor PPO</t>
-  </si>
-  <si>
-    <t>03-24-2022</t>
-  </si>
-  <si>
-    <t>3167091334</t>
-  </si>
-  <si>
-    <t>6821051</t>
-  </si>
-  <si>
-    <t>Judson</t>
-  </si>
-  <si>
-    <t>Simon</t>
-  </si>
-  <si>
-    <t>CIGNA</t>
-  </si>
-  <si>
-    <t>Cigna Preferred Medicare (HMO)</t>
-  </si>
-  <si>
-    <t>11-05-2021</t>
-  </si>
-  <si>
-    <t>3799452754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cigna Alliance Medicare (HMO) </t>
-  </si>
-  <si>
-    <t>12-07-2021</t>
-  </si>
-  <si>
-    <t>3172447096</t>
-  </si>
-  <si>
-    <t>AMERITAS</t>
-  </si>
-  <si>
-    <t>PrimeStar® Access</t>
-  </si>
-  <si>
-    <t>dvh</t>
-  </si>
-  <si>
     <t>Core Plans Summary</t>
   </si>
   <si>
@@ -612,7 +503,7 @@
     <t>Copay - Commission:</t>
   </si>
   <si>
-    <t>19</t>
+    <t>14</t>
   </si>
 </sst>
 </file>
@@ -1019,35 +910,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="B5" s="4">
         <f>B3+B4-B2</f>
@@ -1056,7 +947,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="B6" s="2">
         <v>-30</v>
@@ -1064,30 +955,30 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B5:B7)</f>
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="B9" s="5">
         <f>MAX(0, B8*150)</f>
@@ -1096,12 +987,12 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -1109,7 +1000,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -1117,20 +1008,20 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -1139,28 +1030,22 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -1168,7 +1053,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="B23">
         <f>-B20+B21+B22</f>
@@ -1177,7 +1062,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="B24" s="5">
         <f>B23*50</f>
@@ -1186,17 +1071,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -1204,7 +1089,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="B29">
         <f>-B26+B27+B28</f>
@@ -1213,7 +1098,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="B30" s="5">
         <f>B29*100</f>
@@ -1227,7 +1112,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W52"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1490,10 +1375,10 @@
         <v>49</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>27</v>
@@ -1502,7 +1387,7 @@
         <v>28</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>30</v>
@@ -1514,10 +1399,10 @@
         <v>32</v>
       </c>
       <c r="M8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>34</v>
@@ -1534,16 +1419,16 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>27</v>
@@ -1570,10 +1455,10 @@
         <v>32</v>
       </c>
       <c r="M10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="6" t="s">
         <v>34</v>
@@ -1590,16 +1475,16 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>27</v>
@@ -1626,36 +1511,30 @@
         <v>32</v>
       </c>
       <c r="M12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T12" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="W12" t="b">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>27</v>
@@ -1682,36 +1561,30 @@
         <v>32</v>
       </c>
       <c r="M14" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="N14" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T14" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="W14" t="b">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>27</v>
@@ -1758,16 +1631,16 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>27</v>
@@ -1794,10 +1667,10 @@
         <v>32</v>
       </c>
       <c r="M18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q18" s="6" t="s">
         <v>34</v>
@@ -1814,16 +1687,16 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>27</v>
@@ -1850,36 +1723,30 @@
         <v>32</v>
       </c>
       <c r="M20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="N20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="Q20" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T20" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="W20" t="b">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>27</v>
@@ -1906,30 +1773,36 @@
         <v>32</v>
       </c>
       <c r="M22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q22" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S22" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="T22" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="W22" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>27</v>
@@ -1956,10 +1829,10 @@
         <v>32</v>
       </c>
       <c r="M24" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="N24" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="Q24" s="6" t="s">
         <v>34</v>
@@ -1976,16 +1849,16 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>27</v>
@@ -2012,10 +1885,10 @@
         <v>32</v>
       </c>
       <c r="M26" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="N26" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="Q26" s="6" t="s">
         <v>34</v>
@@ -2032,16 +1905,16 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>27</v>
@@ -2068,10 +1941,10 @@
         <v>32</v>
       </c>
       <c r="M28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q28" s="6" t="s">
         <v>34</v>
@@ -2088,16 +1961,16 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>27</v>
@@ -2124,36 +1997,30 @@
         <v>32</v>
       </c>
       <c r="M30" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N30" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Q30" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S30" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T30" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="W30" t="b">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>27</v>
@@ -2180,10 +2047,10 @@
         <v>32</v>
       </c>
       <c r="M32" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="N32" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="Q32" s="6" t="s">
         <v>34</v>
@@ -2200,16 +2067,16 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>27</v>
@@ -2236,10 +2103,10 @@
         <v>32</v>
       </c>
       <c r="M34" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="N34" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="Q34" s="6" t="s">
         <v>34</v>
@@ -2256,16 +2123,16 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>27</v>
@@ -2292,36 +2159,30 @@
         <v>32</v>
       </c>
       <c r="M36" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="N36" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="Q36" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S36" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T36" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="W36" t="b">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:23">
       <c r="A38" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>27</v>
@@ -2348,30 +2209,36 @@
         <v>32</v>
       </c>
       <c r="M38" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="N38" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="Q38" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S38" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="T38" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="W38" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:23">
       <c r="A40" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>27</v>
@@ -2398,10 +2265,10 @@
         <v>32</v>
       </c>
       <c r="M40" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="N40" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="Q40" s="6" t="s">
         <v>34</v>
@@ -2418,16 +2285,16 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>27</v>
@@ -2454,328 +2321,63 @@
         <v>32</v>
       </c>
       <c r="M42" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="N42" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="Q42" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S42" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T42" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="W42" t="b">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:23">
       <c r="A44" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="E44" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="K44" t="s">
         <v>132</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K44" t="s">
-        <v>31</v>
       </c>
       <c r="L44" t="s">
         <v>32</v>
       </c>
       <c r="M44" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="N44" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="Q44" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S44" s="7" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23">
-      <c r="A46" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K46" t="s">
-        <v>140</v>
-      </c>
-      <c r="L46" t="s">
-        <v>32</v>
-      </c>
-      <c r="M46" t="s">
-        <v>44</v>
-      </c>
-      <c r="N46" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q46" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S46" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23">
-      <c r="A48" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="K48" t="s">
-        <v>140</v>
-      </c>
-      <c r="L48" t="s">
-        <v>146</v>
-      </c>
-      <c r="M48" t="s">
-        <v>147</v>
-      </c>
-      <c r="N48" t="s">
-        <v>148</v>
-      </c>
-      <c r="O48" t="s">
-        <v>149</v>
-      </c>
-      <c r="P48" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q48" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23">
-      <c r="A49" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="K49" t="s">
-        <v>140</v>
-      </c>
-      <c r="L49" t="s">
-        <v>32</v>
-      </c>
-      <c r="M49" t="s">
-        <v>154</v>
-      </c>
-      <c r="N49" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q49" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S49" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23">
-      <c r="A51" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="K51" t="s">
-        <v>140</v>
-      </c>
-      <c r="L51" t="s">
-        <v>146</v>
-      </c>
-      <c r="M51" t="s">
-        <v>161</v>
-      </c>
-      <c r="N51" t="s">
-        <v>69</v>
-      </c>
-      <c r="O51" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q51" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23">
-      <c r="A52" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="K52" t="s">
-        <v>140</v>
-      </c>
-      <c r="L52" t="s">
-        <v>32</v>
-      </c>
-      <c r="M52" t="s">
-        <v>164</v>
-      </c>
-      <c r="N52" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q52" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S52" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T52" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="W52" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2824,142 +2426,6 @@
     <hyperlink ref="B42" r:id="rId42"/>
     <hyperlink ref="A44" r:id="rId43"/>
     <hyperlink ref="B44" r:id="rId44"/>
-    <hyperlink ref="A46" r:id="rId45"/>
-    <hyperlink ref="B46" r:id="rId46"/>
-    <hyperlink ref="A48" r:id="rId47"/>
-    <hyperlink ref="B48" r:id="rId48"/>
-    <hyperlink ref="A49" r:id="rId49"/>
-    <hyperlink ref="B49" r:id="rId50"/>
-    <hyperlink ref="A51" r:id="rId51"/>
-    <hyperlink ref="B51" r:id="rId52"/>
-    <hyperlink ref="A52" r:id="rId53"/>
-    <hyperlink ref="B52" r:id="rId54"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="13.7109375" style="6" customWidth="1"/>
-    <col min="3" max="9" width="9.7109375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="6" customWidth="1"/>
-    <col min="11" max="16" width="11.7109375" customWidth="1"/>
-    <col min="17" max="19" width="10.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="7" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K2" t="s">
-        <v>168</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel_reports/EnlightNuUsaLLC_House.xlsx
+++ b/excel_reports/EnlightNuUsaLLC_House.xlsx
@@ -8,18 +8,101 @@
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Core" sheetId="2" r:id="rId2"/>
+    <sheet name="Last Month NEW" sheetId="2" r:id="rId2"/>
+    <sheet name="Core" sheetId="3" r:id="rId3"/>
+    <sheet name="Dvh" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="227">
   <si>
     <t>Policy Record</t>
   </si>
   <si>
+    <t>Contact Recrod</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Carrier</t>
+  </si>
+  <si>
+    <t>Commission ID</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Plan Type</t>
+  </si>
+  <si>
+    <t>Date Actual Submission</t>
+  </si>
+  <si>
+    <t>Effective Date</t>
+  </si>
+  <si>
+    <t>Date Actual Cancel</t>
+  </si>
+  <si>
+    <t>Date Notified Cancel</t>
+  </si>
+  <si>
+    <t>Cancellation Notes</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-7775359/3167164288</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/contact/12382351</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>HUMANA</t>
+  </si>
+  <si>
+    <t>410 - Cancelled</t>
+  </si>
+  <si>
+    <t>Advantage</t>
+  </si>
+  <si>
+    <t>03-15-2022</t>
+  </si>
+  <si>
+    <t>05-01-2022</t>
+  </si>
+  <si>
+    <t>10-09-2022</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-7775359/3718517396</t>
+  </si>
+  <si>
+    <t>AARP/UHC</t>
+  </si>
+  <si>
+    <t>200 - Issued</t>
+  </si>
+  <si>
+    <t>11-07-2022</t>
+  </si>
+  <si>
+    <t>01-01-2023</t>
+  </si>
+  <si>
     <t>Contact Record</t>
   </si>
   <si>
@@ -41,18 +124,12 @@
     <t>Agent Last</t>
   </si>
   <si>
-    <t>Carrier</t>
-  </si>
-  <si>
     <t>Plan</t>
   </si>
   <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Submitted</t>
   </si>
   <si>
@@ -68,9 +145,6 @@
     <t>Active?</t>
   </si>
   <si>
-    <t>Cancellation Notes</t>
-  </si>
-  <si>
     <t>Eligible for Residual</t>
   </si>
   <si>
@@ -113,9 +187,6 @@
     <t>Supplemental</t>
   </si>
   <si>
-    <t>200 - Issued</t>
-  </si>
-  <si>
     <t>05-01-2021</t>
   </si>
   <si>
@@ -155,6 +226,33 @@
     <t>False</t>
   </si>
   <si>
+    <t>3173177377</t>
+  </si>
+  <si>
+    <t>4100401</t>
+  </si>
+  <si>
+    <t>Cynthia</t>
+  </si>
+  <si>
+    <t>Cunningham</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>AETNA</t>
+  </si>
+  <si>
+    <t>08-03-2021</t>
+  </si>
+  <si>
+    <t>09-01-2021</t>
+  </si>
+  <si>
     <t>3173273611</t>
   </si>
   <si>
@@ -251,9 +349,6 @@
     <t>Phillipe</t>
   </si>
   <si>
-    <t>Johnson</t>
-  </si>
-  <si>
     <t>04-01-2022</t>
   </si>
   <si>
@@ -293,9 +388,6 @@
     <t>Mitchell</t>
   </si>
   <si>
-    <t>09-01-2021</t>
-  </si>
-  <si>
     <t>3173196118</t>
   </si>
   <si>
@@ -356,9 +448,6 @@
     <t>Pomraning</t>
   </si>
   <si>
-    <t>05-01-2022</t>
-  </si>
-  <si>
     <t>3173286725</t>
   </si>
   <si>
@@ -398,6 +487,57 @@
     <t>06-01-2022</t>
   </si>
   <si>
+    <t>3168411539</t>
+  </si>
+  <si>
+    <t>313301</t>
+  </si>
+  <si>
+    <t>Janice</t>
+  </si>
+  <si>
+    <t>Campbell</t>
+  </si>
+  <si>
+    <t>500 - Cancelled</t>
+  </si>
+  <si>
+    <t>11-18-2020</t>
+  </si>
+  <si>
+    <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>12-31-2021</t>
+  </si>
+  <si>
+    <t>3167039925</t>
+  </si>
+  <si>
+    <t>6922601</t>
+  </si>
+  <si>
+    <t>Margaret(Peg)</t>
+  </si>
+  <si>
+    <t>Colyar</t>
+  </si>
+  <si>
+    <t>AARP Medicare Advantage Choice (PPO)</t>
+  </si>
+  <si>
+    <t>10-28-2021</t>
+  </si>
+  <si>
+    <t>3798777905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AARP MA Patriot </t>
+  </si>
+  <si>
+    <t>11-23-2021</t>
+  </si>
+  <si>
     <t>3167095955</t>
   </si>
   <si>
@@ -410,10 +550,67 @@
     <t>Dudley</t>
   </si>
   <si>
-    <t>AARP/UHC</t>
-  </si>
-  <si>
-    <t>Advantage</t>
+    <t>3167164288</t>
+  </si>
+  <si>
+    <t>12382351</t>
+  </si>
+  <si>
+    <t>HumanaChoice H5216-265 (PPO)</t>
+  </si>
+  <si>
+    <t>3718517396</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Strehlow</t>
+  </si>
+  <si>
+    <t>AARP Medicare Advantage Walgreens (PPO)</t>
+  </si>
+  <si>
+    <t>3168434998</t>
+  </si>
+  <si>
+    <t>9263551</t>
+  </si>
+  <si>
+    <t>Norma</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>01-25-2022</t>
+  </si>
+  <si>
+    <t>03-01-2022</t>
+  </si>
+  <si>
+    <t>03-31-2022</t>
+  </si>
+  <si>
+    <t>3798777767</t>
+  </si>
+  <si>
+    <t>Honor PPO</t>
+  </si>
+  <si>
+    <t>03-24-2022</t>
+  </si>
+  <si>
+    <t>3172447096</t>
+  </si>
+  <si>
+    <t>AMERITAS</t>
+  </si>
+  <si>
+    <t>PrimeStar® Access</t>
+  </si>
+  <si>
+    <t>dvh</t>
   </si>
   <si>
     <t>Core Plans Summary</t>
@@ -458,9 +655,6 @@
     <t>Total Core Plan Submissions Last Month</t>
   </si>
   <si>
-    <t>Core Plan Cancelations Posted Last Month</t>
-  </si>
-  <si>
     <t>Residuals</t>
   </si>
   <si>
@@ -503,7 +697,7 @@
     <t>Copay - Commission:</t>
   </si>
   <si>
-    <t>14</t>
+    <t>15</t>
   </si>
 </sst>
 </file>
@@ -539,19 +733,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -573,12 +767,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -595,14 +789,17 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -910,35 +1107,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>137</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>138</v>
+        <v>203</v>
       </c>
       <c r="B5" s="4">
         <f>B3+B4-B2</f>
@@ -947,7 +1144,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>139</v>
+        <v>204</v>
       </c>
       <c r="B6" s="2">
         <v>-30</v>
@@ -955,30 +1152,30 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>140</v>
+        <v>205</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>141</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>142</v>
+        <v>207</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B5:B7)</f>
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>143</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="B9" s="5">
         <f>MAX(0, B8*150)</f>
@@ -987,41 +1184,33 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>146</v>
+        <v>211</v>
       </c>
       <c r="B12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>148</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>149</v>
+        <v>213</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>162</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>150</v>
+        <v>214</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -1030,22 +1219,28 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>152</v>
+        <v>216</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>153</v>
+        <v>217</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>154</v>
+        <v>218</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -1053,7 +1248,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>155</v>
+        <v>219</v>
       </c>
       <c r="B23">
         <f>-B20+B21+B22</f>
@@ -1062,7 +1257,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="B24" s="5">
         <f>B23*50</f>
@@ -1071,17 +1266,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -1089,7 +1284,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>160</v>
+        <v>224</v>
       </c>
       <c r="B29">
         <f>-B26+B27+B28</f>
@@ -1098,7 +1293,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>161</v>
+        <v>225</v>
       </c>
       <c r="B30" s="5">
         <f>B29*100</f>
@@ -1112,143 +1307,275 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W44"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.7109375" style="6" customWidth="1"/>
-    <col min="3" max="9" width="9.7109375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="6" customWidth="1"/>
+    <col min="1" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="13" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="13.7109375" style="8" customWidth="1"/>
+    <col min="3" max="9" width="9.7109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="8" customWidth="1"/>
     <col min="11" max="16" width="11.7109375" customWidth="1"/>
-    <col min="17" max="19" width="10.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="7" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="6" customWidth="1"/>
+    <col min="17" max="19" width="10.7109375" style="8" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="9" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="8" customWidth="1"/>
     <col min="21" max="23" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="B1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="J1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>22</v>
+      <c r="S1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" s="6">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="8">
         <v>2.5</v>
       </c>
       <c r="W2" t="b">
@@ -1256,55 +1583,55 @@
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>30</v>
+      <c r="A4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="N4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T4" s="6">
+        <v>62</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="8">
         <v>2.5</v>
       </c>
       <c r="W4" t="b">
@@ -1312,105 +1639,105 @@
       </c>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>30</v>
+      <c r="A6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="L6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M6" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>45</v>
+        <v>67</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>30</v>
+      <c r="A8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="L8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M8" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="N8" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T8" s="6">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="T8" s="8">
         <v>2.5</v>
       </c>
       <c r="W8" t="b">
@@ -1418,55 +1745,55 @@
       </c>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="A10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="J10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="K10" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="L10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M10" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="N10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T10" s="6">
+        <v>82</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="T10" s="8">
         <v>2.5</v>
       </c>
       <c r="W10" t="b">
@@ -1474,211 +1801,211 @@
       </c>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>30</v>
+      <c r="A12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="K12" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="L12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M12" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="N12" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S12" s="7" t="s">
-        <v>45</v>
+        <v>87</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="T12" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="W12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>30</v>
+      <c r="A14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="K14" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="L14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M14" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="N14" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S14" s="7" t="s">
-        <v>45</v>
+        <v>92</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="A16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" t="s">
+        <v>92</v>
+      </c>
+      <c r="N16" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S16" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M16" t="s">
-        <v>69</v>
-      </c>
-      <c r="N16" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T16" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="W16" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>30</v>
+      <c r="A18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="K18" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="L18" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M18" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="N18" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T18" s="6">
+        <v>101</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="T18" s="8">
         <v>2.5</v>
       </c>
       <c r="W18" t="b">
@@ -1686,161 +2013,161 @@
       </c>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>30</v>
+      <c r="A20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="K20" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="L20" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M20" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S20" s="7" t="s">
-        <v>45</v>
+        <v>106</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="T20" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="W20" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>30</v>
+      <c r="A22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="K22" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="L22" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M22" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="N22" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T22" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="W22" t="b">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:23">
-      <c r="A24" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="A24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>30</v>
+      <c r="J24" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="K24" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="L24" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M24" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="N24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T24" s="6">
+        <v>115</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S24" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="T24" s="8">
         <v>2.5</v>
       </c>
       <c r="W24" t="b">
@@ -1848,55 +2175,55 @@
       </c>
     </row>
     <row r="26" spans="1:23">
-      <c r="A26" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>30</v>
+      <c r="A26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="K26" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="L26" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M26" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="N26" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S26" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T26" s="6">
+        <v>56</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="T26" s="8">
         <v>2.5</v>
       </c>
       <c r="W26" t="b">
@@ -1904,55 +2231,55 @@
       </c>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>30</v>
+      <c r="A28" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="K28" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="L28" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M28" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="N28" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q28" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T28" s="6">
+        <v>77</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S28" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="T28" s="8">
         <v>2.5</v>
       </c>
       <c r="W28" t="b">
@@ -1960,161 +2287,161 @@
       </c>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>30</v>
+      <c r="A30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="K30" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="L30" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M30" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="N30" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q30" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S30" s="7" t="s">
-        <v>45</v>
+        <v>87</v>
+      </c>
+      <c r="Q30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S30" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="T30" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="W30" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:23">
-      <c r="A32" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>30</v>
+      <c r="A32" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="K32" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="L32" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M32" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="N32" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q32" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S32" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T32" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="W32" t="b">
-        <v>1</v>
+        <v>92</v>
+      </c>
+      <c r="Q32" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S32" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:23">
-      <c r="A34" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>30</v>
+      <c r="A34" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="K34" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="L34" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M34" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="N34" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q34" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S34" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T34" s="6">
+        <v>134</v>
+      </c>
+      <c r="Q34" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S34" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="T34" s="8">
         <v>2.5</v>
       </c>
       <c r="W34" t="b">
@@ -2122,161 +2449,161 @@
       </c>
     </row>
     <row r="36" spans="1:23">
-      <c r="A36" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>30</v>
+      <c r="A36" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="K36" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="L36" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M36" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="N36" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q36" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S36" s="7" t="s">
-        <v>45</v>
+        <v>106</v>
+      </c>
+      <c r="Q36" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S36" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="T36" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="W36" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:23">
-      <c r="A38" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>30</v>
+      <c r="A38" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="K38" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="L38" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M38" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="N38" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q38" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S38" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T38" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="W38" t="b">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="Q38" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S38" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:23">
-      <c r="A40" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>30</v>
+      <c r="A40" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="K40" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="L40" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M40" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="N40" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q40" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S40" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T40" s="6">
+        <v>106</v>
+      </c>
+      <c r="Q40" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S40" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="T40" s="8">
         <v>2.5</v>
       </c>
       <c r="W40" t="b">
@@ -2284,100 +2611,515 @@
       </c>
     </row>
     <row r="42" spans="1:23">
-      <c r="A42" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E42" s="6" t="s">
+      <c r="A42" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K42" t="s">
+        <v>55</v>
+      </c>
+      <c r="L42" t="s">
+        <v>25</v>
+      </c>
+      <c r="M42" t="s">
+        <v>56</v>
+      </c>
+      <c r="N42" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q42" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S42" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="T42" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="W42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K44" t="s">
+        <v>55</v>
+      </c>
+      <c r="L44" t="s">
+        <v>25</v>
+      </c>
+      <c r="M44" t="s">
+        <v>155</v>
+      </c>
+      <c r="N44" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q44" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S44" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46" t="s">
+        <v>160</v>
+      </c>
+      <c r="M46" t="s">
+        <v>161</v>
+      </c>
+      <c r="N46" t="s">
+        <v>162</v>
+      </c>
+      <c r="O46" t="s">
+        <v>22</v>
+      </c>
+      <c r="P46" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q46" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="S46" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="K48" t="s">
+        <v>19</v>
+      </c>
+      <c r="L48" t="s">
+        <v>18</v>
+      </c>
+      <c r="M48" t="s">
+        <v>169</v>
+      </c>
+      <c r="N48" t="s">
+        <v>67</v>
+      </c>
+      <c r="O48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P48" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q48" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K49" t="s">
+        <v>19</v>
+      </c>
+      <c r="L49" t="s">
+        <v>25</v>
+      </c>
+      <c r="M49" t="s">
+        <v>172</v>
+      </c>
+      <c r="N49" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q49" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S49" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K51" t="s">
+        <v>19</v>
+      </c>
+      <c r="L51" t="s">
+        <v>25</v>
+      </c>
+      <c r="M51" t="s">
+        <v>67</v>
+      </c>
+      <c r="N51" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q51" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S51" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
+      <c r="A53" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="K53" t="s">
+        <v>19</v>
+      </c>
+      <c r="L53" t="s">
+        <v>18</v>
+      </c>
+      <c r="M53" t="s">
+        <v>20</v>
+      </c>
+      <c r="N53" t="s">
+        <v>21</v>
+      </c>
+      <c r="O53" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q53" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
+      <c r="A54" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="K54" t="s">
+        <v>19</v>
+      </c>
+      <c r="L54" t="s">
+        <v>25</v>
+      </c>
+      <c r="M54" t="s">
+        <v>26</v>
+      </c>
+      <c r="N54" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K42" t="s">
-        <v>31</v>
-      </c>
-      <c r="L42" t="s">
-        <v>32</v>
-      </c>
-      <c r="M42" t="s">
-        <v>126</v>
-      </c>
-      <c r="N42" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q42" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S42" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23">
-      <c r="A44" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="K44" t="s">
-        <v>132</v>
-      </c>
-      <c r="L44" t="s">
-        <v>32</v>
-      </c>
-      <c r="M44" t="s">
-        <v>44</v>
-      </c>
-      <c r="N44" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q44" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S44" s="7" t="s">
-        <v>45</v>
+      <c r="Q54" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S54" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="A56" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="K56" t="s">
+        <v>19</v>
+      </c>
+      <c r="L56" t="s">
+        <v>18</v>
+      </c>
+      <c r="M56" t="s">
+        <v>188</v>
+      </c>
+      <c r="N56" t="s">
+        <v>189</v>
+      </c>
+      <c r="O56" t="s">
+        <v>22</v>
+      </c>
+      <c r="P56" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q56" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="A57" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="K57" t="s">
+        <v>19</v>
+      </c>
+      <c r="L57" t="s">
+        <v>25</v>
+      </c>
+      <c r="M57" t="s">
+        <v>193</v>
+      </c>
+      <c r="N57" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q57" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S57" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2426,6 +3168,148 @@
     <hyperlink ref="B42" r:id="rId42"/>
     <hyperlink ref="A44" r:id="rId43"/>
     <hyperlink ref="B44" r:id="rId44"/>
+    <hyperlink ref="A46" r:id="rId45"/>
+    <hyperlink ref="B46" r:id="rId46"/>
+    <hyperlink ref="A48" r:id="rId47"/>
+    <hyperlink ref="B48" r:id="rId48"/>
+    <hyperlink ref="A49" r:id="rId49"/>
+    <hyperlink ref="B49" r:id="rId50"/>
+    <hyperlink ref="A51" r:id="rId51"/>
+    <hyperlink ref="B51" r:id="rId52"/>
+    <hyperlink ref="A53" r:id="rId53"/>
+    <hyperlink ref="B53" r:id="rId54"/>
+    <hyperlink ref="A54" r:id="rId55"/>
+    <hyperlink ref="B54" r:id="rId56"/>
+    <hyperlink ref="A56" r:id="rId57"/>
+    <hyperlink ref="B56" r:id="rId58"/>
+    <hyperlink ref="A57" r:id="rId59"/>
+    <hyperlink ref="B57" r:id="rId60"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="13.7109375" style="8" customWidth="1"/>
+    <col min="3" max="9" width="9.7109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="8" customWidth="1"/>
+    <col min="11" max="16" width="11.7109375" customWidth="1"/>
+    <col min="17" max="19" width="10.7109375" style="8" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="9" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="K2" t="s">
+        <v>197</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel_reports/EnlightNuUsaLLC_House.xlsx
+++ b/excel_reports/EnlightNuUsaLLC_House.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="234">
   <si>
     <t>Policy Record</t>
   </si>
@@ -352,6 +352,21 @@
     <t>04-01-2022</t>
   </si>
   <si>
+    <t>3173184837</t>
+  </si>
+  <si>
+    <t>6459551</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Kellner</t>
+  </si>
+  <si>
+    <t>10-05-2021</t>
+  </si>
+  <si>
     <t>3173286698</t>
   </si>
   <si>
@@ -511,78 +526,54 @@
     <t>12-31-2021</t>
   </si>
   <si>
-    <t>3167039925</t>
-  </si>
-  <si>
-    <t>6922601</t>
-  </si>
-  <si>
-    <t>Margaret(Peg)</t>
-  </si>
-  <si>
-    <t>Colyar</t>
+    <t>3167095955</t>
+  </si>
+  <si>
+    <t>16778215</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Dudley</t>
+  </si>
+  <si>
+    <t>3167164288</t>
+  </si>
+  <si>
+    <t>12382351</t>
+  </si>
+  <si>
+    <t>HumanaChoice H5216-265 (PPO)</t>
+  </si>
+  <si>
+    <t>3718517396</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Strehlow</t>
+  </si>
+  <si>
+    <t>AARP Medicare Advantage Walgreens (PPO)</t>
+  </si>
+  <si>
+    <t>3168434998</t>
+  </si>
+  <si>
+    <t>9263551</t>
+  </si>
+  <si>
+    <t>Norma</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
   <si>
     <t>AARP Medicare Advantage Choice (PPO)</t>
   </si>
   <si>
-    <t>10-28-2021</t>
-  </si>
-  <si>
-    <t>3798777905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AARP MA Patriot </t>
-  </si>
-  <si>
-    <t>11-23-2021</t>
-  </si>
-  <si>
-    <t>3167095955</t>
-  </si>
-  <si>
-    <t>16778215</t>
-  </si>
-  <si>
-    <t>Charles</t>
-  </si>
-  <si>
-    <t>Dudley</t>
-  </si>
-  <si>
-    <t>3167164288</t>
-  </si>
-  <si>
-    <t>12382351</t>
-  </si>
-  <si>
-    <t>HumanaChoice H5216-265 (PPO)</t>
-  </si>
-  <si>
-    <t>3718517396</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Strehlow</t>
-  </si>
-  <si>
-    <t>AARP Medicare Advantage Walgreens (PPO)</t>
-  </si>
-  <si>
-    <t>3168434998</t>
-  </si>
-  <si>
-    <t>9263551</t>
-  </si>
-  <si>
-    <t>Norma</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>01-25-2022</t>
   </si>
   <si>
@@ -599,6 +590,36 @@
   </si>
   <si>
     <t>03-24-2022</t>
+  </si>
+  <si>
+    <t>3167091334</t>
+  </si>
+  <si>
+    <t>6821051</t>
+  </si>
+  <si>
+    <t>Judson</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>CIGNA</t>
+  </si>
+  <si>
+    <t>Cigna Preferred Medicare (HMO)</t>
+  </si>
+  <si>
+    <t>11-05-2021</t>
+  </si>
+  <si>
+    <t>3799452754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cigna Alliance Medicare (HMO) </t>
+  </si>
+  <si>
+    <t>12-07-2021</t>
   </si>
   <si>
     <t>3172447096</t>
@@ -1107,35 +1128,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B5" s="4">
         <f>B3+B4-B2</f>
@@ -1144,7 +1165,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B6" s="2">
         <v>-30</v>
@@ -1152,30 +1173,30 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B5:B7)</f>
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B9" s="5">
         <f>MAX(0, B8*150)</f>
@@ -1184,12 +1205,12 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -1197,20 +1218,20 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -1219,12 +1240,12 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1232,7 +1253,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1240,7 +1261,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -1248,7 +1269,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B23">
         <f>-B20+B21+B22</f>
@@ -1257,7 +1278,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B24" s="5">
         <f>B23*50</f>
@@ -1266,17 +1287,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -1284,7 +1305,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B29">
         <f>-B26+B27+B28</f>
@@ -1293,7 +1314,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B30" s="5">
         <f>B29*100</f>
@@ -1439,7 +1460,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W57"/>
+  <dimension ref="A1:W59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2132,10 +2153,10 @@
         <v>114</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>51</v>
@@ -2159,19 +2180,13 @@
         <v>115</v>
       </c>
       <c r="N24" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="Q24" s="8" t="s">
         <v>57</v>
       </c>
       <c r="S24" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="T24" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="W24" t="b">
-        <v>1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2182,10 +2197,10 @@
         <v>117</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>51</v>
@@ -2212,10 +2227,10 @@
         <v>25</v>
       </c>
       <c r="M26" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="N26" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="Q26" s="8" t="s">
         <v>57</v>
@@ -2232,16 +2247,16 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>51</v>
@@ -2268,10 +2283,10 @@
         <v>25</v>
       </c>
       <c r="M28" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="N28" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="Q28" s="8" t="s">
         <v>57</v>
@@ -2288,16 +2303,16 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>51</v>
@@ -2324,10 +2339,10 @@
         <v>25</v>
       </c>
       <c r="M30" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="N30" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="Q30" s="8" t="s">
         <v>57</v>
@@ -2344,16 +2359,16 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>51</v>
@@ -2380,30 +2395,36 @@
         <v>25</v>
       </c>
       <c r="M32" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="N32" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="Q32" s="8" t="s">
         <v>57</v>
       </c>
       <c r="S32" s="9" t="s">
-        <v>68</v>
+        <v>57</v>
+      </c>
+      <c r="T32" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="W32" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:23">
       <c r="A34" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>51</v>
@@ -2430,33 +2451,27 @@
         <v>25</v>
       </c>
       <c r="M34" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="N34" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="Q34" s="8" t="s">
         <v>57</v>
       </c>
       <c r="S34" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="T34" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="W34" t="b">
-        <v>1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:23">
       <c r="A36" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>138</v>
@@ -2486,10 +2501,10 @@
         <v>25</v>
       </c>
       <c r="M36" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="N36" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="Q36" s="8" t="s">
         <v>57</v>
@@ -2506,16 +2521,16 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>51</v>
@@ -2542,30 +2557,36 @@
         <v>25</v>
       </c>
       <c r="M38" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="N38" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="Q38" s="8" t="s">
         <v>57</v>
       </c>
       <c r="S38" s="9" t="s">
-        <v>68</v>
+        <v>57</v>
+      </c>
+      <c r="T38" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="W38" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:23">
       <c r="A40" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>51</v>
@@ -2592,36 +2613,30 @@
         <v>25</v>
       </c>
       <c r="M40" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="N40" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="Q40" s="8" t="s">
         <v>57</v>
       </c>
       <c r="S40" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="T40" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="W40" t="b">
-        <v>1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:23">
       <c r="A42" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>51</v>
@@ -2648,10 +2663,10 @@
         <v>25</v>
       </c>
       <c r="M42" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="N42" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="Q42" s="8" t="s">
         <v>57</v>
@@ -2668,16 +2683,16 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>51</v>
@@ -2704,16 +2719,22 @@
         <v>25</v>
       </c>
       <c r="M44" t="s">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="N44" t="s">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="Q44" s="8" t="s">
         <v>57</v>
       </c>
       <c r="S44" s="9" t="s">
-        <v>68</v>
+        <v>57</v>
+      </c>
+      <c r="T44" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="W44" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -2730,10 +2751,10 @@
         <v>159</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>51</v>
@@ -2742,28 +2763,25 @@
         <v>52</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>75</v>
+        <v>53</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="K46" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="L46" t="s">
+        <v>25</v>
+      </c>
+      <c r="M46" t="s">
         <v>160</v>
       </c>
-      <c r="M46" t="s">
-        <v>161</v>
-      </c>
       <c r="N46" t="s">
-        <v>162</v>
-      </c>
-      <c r="O46" t="s">
-        <v>22</v>
-      </c>
-      <c r="P46" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q46" s="8" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="S46" s="9" t="s">
         <v>68</v>
@@ -2771,16 +2789,16 @@
     </row>
     <row r="48" spans="1:23">
       <c r="A48" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D48" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>167</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>73</v>
@@ -2789,142 +2807,142 @@
         <v>74</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J48" s="8" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="K48" t="s">
         <v>19</v>
       </c>
       <c r="L48" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="M48" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N48" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="O48" t="s">
         <v>22</v>
       </c>
       <c r="P48" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q48" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="S48" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K50" t="s">
+        <v>19</v>
+      </c>
+      <c r="L50" t="s">
+        <v>25</v>
+      </c>
+      <c r="M50" t="s">
         <v>67</v>
       </c>
-      <c r="Q48" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19">
-      <c r="A49" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G49" s="8" t="s">
+      <c r="N50" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q50" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S50" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H49" s="8" t="s">
+      <c r="F52" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I49" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J49" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="K49" t="s">
+      <c r="G52" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="K52" t="s">
         <v>19</v>
       </c>
-      <c r="L49" t="s">
-        <v>25</v>
-      </c>
-      <c r="M49" t="s">
-        <v>172</v>
-      </c>
-      <c r="N49" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q49" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="S49" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19">
-      <c r="A51" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K51" t="s">
-        <v>19</v>
-      </c>
-      <c r="L51" t="s">
-        <v>25</v>
-      </c>
-      <c r="M51" t="s">
-        <v>67</v>
-      </c>
-      <c r="N51" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q51" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="S51" s="9" t="s">
-        <v>68</v>
+      <c r="L52" t="s">
+        <v>18</v>
+      </c>
+      <c r="M52" t="s">
+        <v>20</v>
+      </c>
+      <c r="N52" t="s">
+        <v>21</v>
+      </c>
+      <c r="O52" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q52" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:19">
       <c r="A53" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>15</v>
@@ -2933,10 +2951,10 @@
         <v>16</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>51</v>
@@ -2945,7 +2963,7 @@
         <v>52</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J53" s="8" t="s">
         <v>179</v>
@@ -2954,89 +2972,92 @@
         <v>19</v>
       </c>
       <c r="L53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N53" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q53" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S53" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
+      <c r="A55" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="K55" t="s">
+        <v>19</v>
+      </c>
+      <c r="L55" t="s">
         <v>18</v>
       </c>
-      <c r="M53" t="s">
-        <v>20</v>
-      </c>
-      <c r="N53" t="s">
-        <v>21</v>
-      </c>
-      <c r="O53" t="s">
+      <c r="M55" t="s">
+        <v>185</v>
+      </c>
+      <c r="N55" t="s">
+        <v>186</v>
+      </c>
+      <c r="O55" t="s">
         <v>22</v>
       </c>
-      <c r="Q53" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19">
-      <c r="A54" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J54" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="K54" t="s">
-        <v>19</v>
-      </c>
-      <c r="L54" t="s">
-        <v>25</v>
-      </c>
-      <c r="M54" t="s">
-        <v>26</v>
-      </c>
-      <c r="N54" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q54" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="S54" s="9" t="s">
-        <v>68</v>
+      <c r="P55" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q55" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:19">
       <c r="A56" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>73</v>
@@ -3045,80 +3066,127 @@
         <v>74</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="K56" t="s">
         <v>19</v>
       </c>
       <c r="L56" t="s">
+        <v>25</v>
+      </c>
+      <c r="M56" t="s">
+        <v>190</v>
+      </c>
+      <c r="N56" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q56" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S56" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="K58" t="s">
+        <v>19</v>
+      </c>
+      <c r="L58" t="s">
         <v>18</v>
       </c>
-      <c r="M56" t="s">
-        <v>188</v>
-      </c>
-      <c r="N56" t="s">
-        <v>189</v>
-      </c>
-      <c r="O56" t="s">
+      <c r="M58" t="s">
+        <v>197</v>
+      </c>
+      <c r="N58" t="s">
+        <v>92</v>
+      </c>
+      <c r="O58" t="s">
         <v>22</v>
       </c>
-      <c r="P56" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q56" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19">
-      <c r="A57" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G57" s="8" t="s">
+      <c r="Q58" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G59" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H57" s="8" t="s">
+      <c r="H59" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I57" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J57" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="K57" t="s">
+      <c r="I59" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="K59" t="s">
         <v>19</v>
       </c>
-      <c r="L57" t="s">
+      <c r="L59" t="s">
         <v>25</v>
       </c>
-      <c r="M57" t="s">
-        <v>193</v>
-      </c>
-      <c r="N57" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q57" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="S57" s="9" t="s">
+      <c r="M59" t="s">
+        <v>200</v>
+      </c>
+      <c r="N59" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q59" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S59" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3172,18 +3240,20 @@
     <hyperlink ref="B46" r:id="rId46"/>
     <hyperlink ref="A48" r:id="rId47"/>
     <hyperlink ref="B48" r:id="rId48"/>
-    <hyperlink ref="A49" r:id="rId49"/>
-    <hyperlink ref="B49" r:id="rId50"/>
-    <hyperlink ref="A51" r:id="rId51"/>
-    <hyperlink ref="B51" r:id="rId52"/>
+    <hyperlink ref="A50" r:id="rId49"/>
+    <hyperlink ref="B50" r:id="rId50"/>
+    <hyperlink ref="A52" r:id="rId51"/>
+    <hyperlink ref="B52" r:id="rId52"/>
     <hyperlink ref="A53" r:id="rId53"/>
     <hyperlink ref="B53" r:id="rId54"/>
-    <hyperlink ref="A54" r:id="rId55"/>
-    <hyperlink ref="B54" r:id="rId56"/>
+    <hyperlink ref="A55" r:id="rId55"/>
+    <hyperlink ref="B55" r:id="rId56"/>
     <hyperlink ref="A56" r:id="rId57"/>
     <hyperlink ref="B56" r:id="rId58"/>
-    <hyperlink ref="A57" r:id="rId59"/>
-    <hyperlink ref="B57" r:id="rId60"/>
+    <hyperlink ref="A58" r:id="rId59"/>
+    <hyperlink ref="B58" r:id="rId60"/>
+    <hyperlink ref="A59" r:id="rId61"/>
+    <hyperlink ref="B59" r:id="rId62"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3264,7 +3334,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>70</v>
@@ -3288,13 +3358,13 @@
         <v>52</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="K2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L2" t="s">
         <v>25</v>

--- a/excel_reports/EnlightNuUsaLLC_House.xlsx
+++ b/excel_reports/EnlightNuUsaLLC_House.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="165">
   <si>
     <t>Policy Record</t>
   </si>
@@ -257,27 +257,6 @@
     <t>04-01-2022</t>
   </si>
   <si>
-    <t>3173184837</t>
-  </si>
-  <si>
-    <t>6459551</t>
-  </si>
-  <si>
-    <t>Kim</t>
-  </si>
-  <si>
-    <t>Kellner</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>Agent</t>
-  </si>
-  <si>
-    <t>10-05-2021</t>
-  </si>
-  <si>
     <t>3173286698</t>
   </si>
   <si>
@@ -419,54 +398,24 @@
     <t>06-01-2022</t>
   </si>
   <si>
-    <t>3168411539</t>
-  </si>
-  <si>
-    <t>313301</t>
-  </si>
-  <si>
-    <t>Janice</t>
-  </si>
-  <si>
-    <t>Campbell</t>
-  </si>
-  <si>
-    <t>AETNA</t>
+    <t>3167095955</t>
+  </si>
+  <si>
+    <t>16778215</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Dudley</t>
+  </si>
+  <si>
+    <t>AARP/UHC</t>
   </si>
   <si>
     <t>Advantage</t>
   </si>
   <si>
-    <t>500 - Cancelled</t>
-  </si>
-  <si>
-    <t>11-18-2020</t>
-  </si>
-  <si>
-    <t>01-01-2021</t>
-  </si>
-  <si>
-    <t>10-09-2022</t>
-  </si>
-  <si>
-    <t>12-31-2021</t>
-  </si>
-  <si>
-    <t>3167095955</t>
-  </si>
-  <si>
-    <t>16778215</t>
-  </si>
-  <si>
-    <t>Charles</t>
-  </si>
-  <si>
-    <t>Dudley</t>
-  </si>
-  <si>
-    <t>AARP/UHC</t>
-  </si>
-  <si>
     <t>Core Plans Summary</t>
   </si>
   <si>
@@ -476,10 +425,13 @@
     <t>Current Month Active</t>
   </si>
   <si>
-    <t>Lifetime Cancels (12+ Month Duration)</t>
-  </si>
-  <si>
-    <t>(These plans are added back into Current Month Total Active)</t>
+    <t>Past Lifetime Cancels (12+ Month Duration)</t>
+  </si>
+  <si>
+    <t>Current Lifetime Cancels (12+ Month Duration)</t>
+  </si>
+  <si>
+    <t>(Any new long-term cancels are added back into Current Month Total Active)</t>
   </si>
   <si>
     <t>Net New Active</t>
@@ -521,13 +473,16 @@
     <t>Ancillary Plans</t>
   </si>
   <si>
-    <t>Previous Active DVH Plans:</t>
+    <t>Past Active DVH Plans:</t>
   </si>
   <si>
     <t>Current Active DVH Plans:</t>
   </si>
   <si>
-    <t>DVH Lifetime Cancels (12+ Month Duration)</t>
+    <t>Previous DVH Lifetime Cancels (12+ Month Duration)</t>
+  </si>
+  <si>
+    <t>Current DVH Lifetime Cancels (12+ Month Duration)</t>
   </si>
   <si>
     <t>Net New DVH Plans:</t>
@@ -542,7 +497,10 @@
     <t>Current Active Copay Plans:</t>
   </si>
   <si>
-    <t>Copay Lifetime Cancels (12+ Month Duration)</t>
+    <t>Past Copay Lifetime Cancels (12+ Month Duration)</t>
+  </si>
+  <si>
+    <t>Current Copay Lifetime Cancels (12+ Month Duration)</t>
   </si>
   <si>
     <t>Net New Copay Plans:</t>
@@ -946,7 +904,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -958,110 +916,122 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="B3" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>154</v>
-      </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B5" s="4">
-        <f>B3+B4-B2</f>
+      <c r="A5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="2">
         <v>0</v>
       </c>
+      <c r="C5" s="3" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="2">
-        <v>-30</v>
+      <c r="A6" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="4">
+        <f>-B2+B3-B4+B5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B7" s="2">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="2">
         <v>0</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B8" s="4">
-        <f>SUM(B5:B7)</f>
-        <v>0</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" s="5">
-        <f>MAX(0, B8*150)</f>
+        <v>143</v>
+      </c>
+      <c r="B9" s="4">
+        <f>SUM(B6:B8)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>162</v>
+      <c r="C9" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="5">
+        <f>MAX(0, B9*150)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="A12" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -1070,78 +1040,86 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B23">
-        <f>-B20+B21+B22</f>
+        <v>155</v>
+      </c>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24">
+        <f>-B20+B21-B22+B23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B24" s="5">
-        <f>B23*50</f>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B24*50</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B29">
-        <f>-B26+B27+B28</f>
+        <v>161</v>
+      </c>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30">
+        <f>-B26+B27-B28+B29</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B30" s="5">
-        <f>B29*100</f>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" s="5">
+        <f>B30*100</f>
         <v>0</v>
       </c>
     </row>
@@ -1152,13 +1130,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W48"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.7109375" style="6" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" style="6" customWidth="1"/>
     <col min="3" max="9" width="9.7109375" style="6" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="6" customWidth="1"/>
     <col min="11" max="16" width="11.7109375" customWidth="1"/>
@@ -1789,10 +1767,10 @@
         <v>83</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>27</v>
@@ -1813,30 +1791,36 @@
         <v>32</v>
       </c>
       <c r="M22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N22" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="Q22" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S22" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="T22" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="W22" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>27</v>
@@ -1863,10 +1847,10 @@
         <v>32</v>
       </c>
       <c r="M24" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="N24" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="Q24" s="6" t="s">
         <v>34</v>
@@ -1883,16 +1867,16 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>27</v>
@@ -1919,10 +1903,10 @@
         <v>32</v>
       </c>
       <c r="M26" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="N26" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="Q26" s="6" t="s">
         <v>34</v>
@@ -1939,16 +1923,16 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="D28" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>27</v>
@@ -1975,10 +1959,10 @@
         <v>32</v>
       </c>
       <c r="M28" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="N28" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="Q28" s="6" t="s">
         <v>34</v>
@@ -1995,16 +1979,16 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>27</v>
@@ -2031,36 +2015,30 @@
         <v>32</v>
       </c>
       <c r="M30" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N30" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Q30" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S30" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T30" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="W30" t="b">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>27</v>
@@ -2087,30 +2065,36 @@
         <v>32</v>
       </c>
       <c r="M32" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="N32" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="Q32" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S32" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="T32" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="W32" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:23">
       <c r="A34" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>27</v>
@@ -2137,10 +2121,10 @@
         <v>32</v>
       </c>
       <c r="M34" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="N34" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="Q34" s="6" t="s">
         <v>34</v>
@@ -2157,16 +2141,16 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>27</v>
@@ -2193,36 +2177,30 @@
         <v>32</v>
       </c>
       <c r="M36" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="N36" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="Q36" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S36" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T36" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="W36" t="b">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:23">
       <c r="A38" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="D38" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>27</v>
@@ -2249,30 +2227,36 @@
         <v>32</v>
       </c>
       <c r="M38" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="N38" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="Q38" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S38" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="T38" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="W38" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:23">
       <c r="A40" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>27</v>
@@ -2299,10 +2283,10 @@
         <v>32</v>
       </c>
       <c r="M40" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="N40" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="Q40" s="6" t="s">
         <v>34</v>
@@ -2319,16 +2303,16 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>27</v>
@@ -2355,171 +2339,62 @@
         <v>32</v>
       </c>
       <c r="M42" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="N42" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="Q42" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S42" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T42" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="W42" t="b">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:23">
       <c r="A44" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="D44" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="E44" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="K44" t="s">
         <v>132</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K44" t="s">
-        <v>31</v>
       </c>
       <c r="L44" t="s">
         <v>32</v>
       </c>
       <c r="M44" t="s">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="N44" t="s">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="Q44" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S44" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23">
-      <c r="A46" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K46" t="s">
-        <v>139</v>
-      </c>
-      <c r="L46" t="s">
-        <v>140</v>
-      </c>
-      <c r="M46" t="s">
-        <v>141</v>
-      </c>
-      <c r="N46" t="s">
-        <v>142</v>
-      </c>
-      <c r="O46" t="s">
-        <v>143</v>
-      </c>
-      <c r="P46" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q46" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="S46" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23">
-      <c r="A48" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="K48" t="s">
-        <v>139</v>
-      </c>
-      <c r="L48" t="s">
-        <v>32</v>
-      </c>
-      <c r="M48" t="s">
-        <v>44</v>
-      </c>
-      <c r="N48" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q48" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S48" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2569,10 +2444,6 @@
     <hyperlink ref="B42" r:id="rId42"/>
     <hyperlink ref="A44" r:id="rId43"/>
     <hyperlink ref="B44" r:id="rId44"/>
-    <hyperlink ref="A46" r:id="rId45"/>
-    <hyperlink ref="B46" r:id="rId46"/>
-    <hyperlink ref="A48" r:id="rId47"/>
-    <hyperlink ref="B48" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
